--- a/Question_Set2/Programming skills/PowerShell.xlsx
+++ b/Question_Set2/Programming skills/PowerShell.xlsx
@@ -16,23 +16,61 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'You are a systems engineer working on an automation script. You collect the running services under a virtual machine VM1 using Get-Service | where {$_.Status -eq "Running"} cmdlet. You need to complete the above command to receive a JSON object as output.What should the command look like?', 'ques_type': 2, 'options': ['Get-Service | where {$_.Status -eq "Running"} | ConvertTo-Json', 'Get-Service | where {$_.Status -eq "Running"} | ExportTo-Json', 'Get-Service | where {$_.Status -eq "Running"} - json', 'Get-Service | where {$_.Status -eq "Running"} -&amp;gt json'], 'score': 'Get-Service | where {$_.Status -eq "Running"} | ConvertTo-Json'}, {'title': 'You are an automation engineer working on a script to retrieve all the details about network cards in virtual machine VM1. You do not remember the exact command to do that, though you know it contains the word NetAdapter.How can you retrieve all available commands in PowerShell if you know only this part of the command?', 'ques_type': 2, 'options': ['Get-PSCommand *NetAdapter*', 'Get-Command ?NetAdapter?', 'Get-Command NetAdapter', 'Get-Command *NetAdapter*'], 'score': 'Get-Command *NetAdapter*'}, {'title': 'You are an Azure administrator, and you create a new variable named newvar in an Azure Automation account. You create a new PowerShell runbook, and you need to retrieve the value of the variable newvar inside runbook’s code.Which command will retrieve the value?  ', 'ques_type': 2, 'options': ["$var = Get-AzAutomationVariable -Name 'newvar'", "$var = Get-AutomationVariable -Name 'newvar'", "$var = Get-Variable -Name 'newvar'", "$var = New-AzAutomationVariable -Name 'newvar'", '$var = New-Variable -Name ‘newvar’'], 'score': "$var = Get-AutomationVariable -Name 'newvar'"}, {'title': 'You are an Azure administrator. You receive a request to programmatically generate a report with the audit logs from Azure Active Directory. You write a PowerShell script, where you use the following as the API: https://graph.windows.net/{tenant}/activities/audit?api-version=beta Which PowerShell command should you use to call the API?  ', 'ques_type': 2, 'options': ['Invoke-WebRequest', 'Get-API', 'Invoke-API', 'Get-WebRequest'], 'score': 'Invoke-WebRequest'}]</t>
+    <t>questions = [
+    {
+        "title": "You are a systems engineer working on an automation script. You collect the running services under a virtual machine VM1 using Get-Service | where {$_.Status -eq \"Running\"} cmdlet. You need to complete the above command to receive a JSON object as output.What should the command look like?",
+        "ques_type": 2,
+        "options": [
+            "Get-Service | where {$_.Status -eq \"Running\"} | ConvertTo-Json",
+            "Get-Service | where {$_.Status -eq \"Running\"} | ExportTo-Json",
+            "Get-Service | where {$_.Status -eq \"Running\"} - json",
+            "Get-Service | where {$_.Status -eq \"Running\"} -&amp;gt json"
+        ],
+        "score": "Get-Service | where {$_.Status -eq \"Running\"} | ConvertTo-Json"
+    },
+    {
+        "title": "You are an automation engineer working on a script to retrieve all the details about network cards in virtual machine VM1. You do not remember the exact command to do that, though you know it contains the word NetAdapter.How can you retrieve all available commands in PowerShell if you know only this part of the command?",
+        "ques_type": 2,
+        "options": [
+            "Get-PSCommand *NetAdapter*",
+            "Get-Command ?NetAdapter?",
+            "Get-Command NetAdapter",
+            "Get-Command *NetAdapter*"
+        ],
+        "score": "Get-Command *NetAdapter*"
+    },
+    {
+        "title": "You are an Azure administrator, and you create a new variable named newvar in an Azure Automation account. You create a new PowerShell runbook, and you need to retrieve the value of the variable newvar inside runbook\u2019s code.Which command will retrieve the value?",
+        "ques_type": 2,
+        "options": [
+            "$var = Get-AzAutomationVariable -Name 'newvar'",
+            "$var = Get-AutomationVariable -Name 'newvar'",
+            "$var = Get-Variable -Name 'newvar'",
+            "$var = New-AzAutomationVariable -Name 'newvar'",
+            "$var = New-Variable -Name \u2018newvar\u2019"
+        ],
+        "score": "$var = Get-AutomationVariable -Name 'newvar'"
+    },
+    {
+        "title": "You are an Azure administrator. You receive a request to programmatically generate a report with the audit logs from Azure Active Directory. You write a PowerShell script, where you use the following as the API: https://graph.windows.net/{tenant}/activities/audit?api-version=beta Which PowerShell command should you use to call the API?",
+        "ques_type": 2,
+        "options": [
+            "Invoke-WebRequest",
+            "Get-API",
+            "Invoke-API",
+            "Get-WebRequest"
+        ],
+        "score": "Invoke-WebRequest"
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +86,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +94,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +394,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
